--- a/PCBWay-nosensors-2024/IPS/ips20_BOM_resubmitted.xlsx
+++ b/PCBWay-nosensors-2024/IPS/ips20_BOM_resubmitted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
   <si>
     <t xml:space="preserve">PCBWay Bom Quotation, Product No.:T-1N24W341931A</t>
   </si>
@@ -508,7 +508,7 @@
     <t xml:space="preserve">1210</t>
   </si>
   <si>
-    <t xml:space="preserve">Please provide exact part number or component URL.</t>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCP1210ZT0R00/16197012</t>
   </si>
   <si>
     <t xml:space="preserve">SW1,SW2</t>
@@ -658,6 +658,12 @@
   </si>
   <si>
     <t xml:space="preserve">pedal jacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay to not populate if this is a part you cannot procure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com//dp/B00X77SADC/</t>
   </si>
   <si>
     <t xml:space="preserve">R22, R26, R29</t>
@@ -970,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171360</xdr:colOff>
+      <xdr:colOff>171000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>447480</xdr:rowOff>
+      <xdr:rowOff>447120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -986,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="74880" y="67320"/>
-          <a:ext cx="1510560" cy="380160"/>
+          <a:ext cx="1510920" cy="379800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,7 +1015,7 @@
   <dimension ref="A1:AX560"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1854,7 +1860,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>20</v>
       </c>
@@ -1873,7 +1879,9 @@
       <c r="F22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="8"/>
@@ -1881,7 +1889,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="8"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="13" t="s">
         <v>88</v>
       </c>
       <c r="P22" s="8"/>
@@ -2218,15 +2226,18 @@
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="14"/>
       <c r="K32" s="8"/>
       <c r="L32" s="14"/>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -2238,13 +2249,16 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>128</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="14"/>
       <c r="K33" s="8"/>
       <c r="L33" s="14"/>
-      <c r="O33" s="12" t="s">
-        <v>88</v>
+      <c r="O33" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,19 +2266,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,14 +2286,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>19</v>
@@ -2336,14 +2350,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>43</v>
@@ -2359,7 +2373,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -2402,14 +2416,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>43</v>
@@ -2425,7 +2439,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
